--- a/etc/2024-01.xlsx
+++ b/etc/2024-01.xlsx
@@ -981,7 +981,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1021,12 +1021,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="14"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1136,7 +1130,7 @@
     <xf numFmtId="4" fontId="3" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1162,7 +1156,6 @@
       <rgbColor rgb="fff4b083"/>
       <rgbColor rgb="fff7caac"/>
       <rgbColor rgb="ffa1b8e1"/>
-      <rgbColor rgb="ffffdf7f"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2643,13 +2636,13 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="12">
-        <v>3613.273</v>
+        <v>3605.16</v>
       </c>
       <c r="I17" s="13">
-        <v>2171.862</v>
+        <v>2164.5</v>
       </c>
       <c r="J17" s="14">
-        <v>4396.398</v>
+        <v>4387.41</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
